--- a/vevestaDump1.xlsx
+++ b/vevestaDump1.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="dataSourcing" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="featureEngineering" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="modelling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="messages" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dataSourcing" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="featureEngineering" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="modelling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="messages" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sampledata" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,22 +54,21 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,32 +445,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>company</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>job</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Months_Count</t>
+          <t>degree</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Salary</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Expenditure</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>House_Price</t>
+          <t>salary_more_then_100k</t>
         </is>
       </c>
     </row>
@@ -488,12 +478,6 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -513,12 +497,6 @@
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -536,12 +514,6 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -559,15 +531,9 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -593,12 +559,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>salary_ratio</t>
+          <t>age</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>salary_ratio_2</t>
+          <t>gender</t>
         </is>
       </c>
     </row>
@@ -610,7 +576,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -621,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -632,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -647,7 +613,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -657,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,27 +649,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>epochs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>seed</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>epochs</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>accuracy</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>loss</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>precision</t>
         </is>
       </c>
     </row>
@@ -713,30 +674,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gender,Age,Months_Count,Salary,Expenditure,House_Price</t>
+          <t>company,job,degree,salary_more_then_100k,age,gender</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-11-03T09:45:40.845750</t>
+          <t>2022-02-19T06:33:13.582610</t>
         </is>
       </c>
       <c r="D2" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" t="n">
         <v>3</v>
       </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>10</v>
+      <c r="G2" t="n">
+        <v>98.7</v>
       </c>
     </row>
     <row r="3">
@@ -745,30 +703,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gender,Age,Months_Count,Salary,Expenditure,House_Price</t>
+          <t>company,job,degree,salary_more_then_100k,age,gender</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-11-03T09:46:51.249961</t>
+          <t>2022-02-19T06:33:27.737695</t>
         </is>
       </c>
       <c r="D3" t="n">
+        <v>150</v>
+      </c>
+      <c r="E3" t="n">
         <v>3</v>
       </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>10</v>
+      <c r="G3" t="n">
+        <v>98.7</v>
       </c>
     </row>
     <row r="4">
@@ -777,30 +732,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gender,Age,Months_Count,Salary,Expenditure,House_Price</t>
+          <t>company,job,degree,salary_more_then_100k,age,gender</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-11-03T09:47:31.375639</t>
+          <t>2022-02-19T06:33:35.754507</t>
         </is>
       </c>
       <c r="D4" t="n">
+        <v>150</v>
+      </c>
+      <c r="E4" t="n">
         <v>3</v>
       </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>10</v>
+      <c r="G4" t="n">
+        <v>98.7</v>
       </c>
     </row>
     <row r="5">
@@ -809,34 +761,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gender,Age,Months_Count,Salary,Expenditure,House_Price</t>
+          <t>company,job,degree,salary_more_then_100k,age,gender</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-11-03T09:48:14.842845</t>
+          <t>2022-02-19T06:33:45.681506</t>
         </is>
       </c>
       <c r="D5" t="n">
+        <v>150</v>
+      </c>
+      <c r="E5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>10</v>
+      <c r="G5" t="n">
+        <v>98.7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -897,7 +846,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>test msg</t>
+          <t>accuracy increased</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -905,12 +854,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>vevesta-experiment1.ipynb</t>
+          <t>vevesta.py</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-11-03T09:45:40.852619</t>
+          <t>2022-02-19T06:33:15.473585</t>
         </is>
       </c>
     </row>
@@ -925,7 +874,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>test msg</t>
+          <t>accuracy increased</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -933,12 +882,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>vevesta-experiment1.ipynb</t>
+          <t>vevesta.py</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-11-03T09:46:51.257500</t>
+          <t>2022-02-19T06:33:29.692034</t>
         </is>
       </c>
     </row>
@@ -953,7 +902,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>test msg</t>
+          <t>accuracy increased</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -961,12 +910,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>vevesta-experiment1.ipynb</t>
+          <t>vevesta.py</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-11-03T09:47:31.383173</t>
+          <t>2022-02-19T06:33:37.609649</t>
         </is>
       </c>
     </row>
@@ -981,7 +930,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>test msg</t>
+          <t>accuracy increased</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -989,16 +938,377 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>vevesta-experiment1.ipynb</t>
+          <t>vevesta.py</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-11-03T09:48:14.849837</t>
+          <t>2022-02-19T06:33:47.613043</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>degree</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>salary_more_then_100k</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>abc pharma</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>sales executive</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>masters</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>abc pharma</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>business manager</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>bachelors</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>abc pharma</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>business manager</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>masters</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>google</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sales executive</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>bachelors</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>google</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>computer programmer</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>bachelors</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>google</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>computer programmer</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>masters</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>facebook</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>business manager</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>bachelors</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facebook</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>computer programmer</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>bachelors</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>facebook</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>business manager</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>masters</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>facebook</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>sales executive</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>masters</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>google</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>sales executive</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>masters</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>abc pharma</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>computer programmer</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>bachelors</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>google</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>business manager</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>bachelors</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>google</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>business manager</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>masters</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>facebook</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>computer programmer</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>masters</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>facebook</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>sales executive</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>bachelors</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>